--- a/chart_scatter.xlsx
+++ b/chart_scatter.xlsx
@@ -81,7 +81,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="11"/>
+  <c:style val="6"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -94,7 +94,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Results of data analysis</a:t>
+              <a:t>results of clo cashflow sim</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -273,7 +273,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Test number</a:t>
+                  <a:t>sim number</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -304,7 +304,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Data length (mm)</a:t>
+                  <a:t>deal call month</a:t>
                 </a:r>
               </a:p>
             </c:rich>
